--- a/public/assets/updated-excels/substation.xlsx
+++ b/public/assets/updated-excels/substation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>Visual Check</t>
   </si>
@@ -156,6 +156,156 @@
   </si>
   <si>
     <t>16:23:00</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>PUTRAJAYA &amp; CYBERJAYA</t>
+  </si>
+  <si>
+    <t>1986-10-15</t>
+  </si>
+  <si>
+    <t>15:13:00</t>
+  </si>
+  <si>
+    <t>Voluptate reiciendis</t>
+  </si>
+  <si>
+    <t>Sit deserunt consequ</t>
+  </si>
+  <si>
+    <t>Fleur Bender</t>
+  </si>
+  <si>
+    <t>Blanditiis quis magn</t>
+  </si>
+  <si>
+    <t>Neque ducimus qui a</t>
+  </si>
+  <si>
+    <t>In eveniet distinct</t>
+  </si>
+  <si>
+    <t>Molestiae et enim ne</t>
+  </si>
+  <si>
+    <t>Aliquip nemo quidem</t>
+  </si>
+  <si>
+    <t>Tempora nostrum et r</t>
+  </si>
+  <si>
+    <t>Aute Nam et placeat</t>
+  </si>
+  <si>
+    <t>1984-04-18</t>
+  </si>
+  <si>
+    <t>14:01:00</t>
+  </si>
+  <si>
+    <t>Eiusmod nesciunt co</t>
+  </si>
+  <si>
+    <t>Ut sequi ut aspernat</t>
+  </si>
+  <si>
+    <t>Dakota Calderon</t>
+  </si>
+  <si>
+    <t>Dolor officiis volup</t>
+  </si>
+  <si>
+    <t>Sit nisi sed et dolo</t>
+  </si>
+  <si>
+    <t>Voluptas dolorum quo</t>
+  </si>
+  <si>
+    <t>Dolor sed hic aliqua</t>
+  </si>
+  <si>
+    <t>Velit vitae error ut</t>
+  </si>
+  <si>
+    <t>2004-11-29</t>
+  </si>
+  <si>
+    <t>03:05:00</t>
+  </si>
+  <si>
+    <t>Ipsam ex voluptas do</t>
+  </si>
+  <si>
+    <t>Doloremque quae comm</t>
+  </si>
+  <si>
+    <t>Allen Smith</t>
+  </si>
+  <si>
+    <t>Et consectetur sit u</t>
+  </si>
+  <si>
+    <t>Alias laboriosam om</t>
+  </si>
+  <si>
+    <t>Ex numquam est ducim</t>
+  </si>
+  <si>
+    <t>Fugiat ex ad labori</t>
+  </si>
+  <si>
+    <t>Non accusamus exerci</t>
+  </si>
+  <si>
+    <t>In optio enim minus</t>
+  </si>
+  <si>
+    <t>Debitis recusandae</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>PELABUHAN KLANG</t>
+  </si>
+  <si>
+    <t>1980-07-02</t>
+  </si>
+  <si>
+    <t>06:12:00</t>
+  </si>
+  <si>
+    <t>Qui aut sequi est s</t>
+  </si>
+  <si>
+    <t>Ea ullamco quod est</t>
+  </si>
+  <si>
+    <t>Kalia Monroe</t>
+  </si>
+  <si>
+    <t>Quis optio laboris</t>
+  </si>
+  <si>
+    <t>Fugit et dolor prov</t>
+  </si>
+  <si>
+    <t>Eiusmod sit totam il</t>
+  </si>
+  <si>
+    <t>Ipsam rem eos molest</t>
+  </si>
+  <si>
+    <t>Aliquip sint volupta</t>
+  </si>
+  <si>
+    <t>Odio enim Nam suscip</t>
+  </si>
+  <si>
+    <t>Omnis dolor recusand</t>
   </si>
 </sst>
 </file>
@@ -547,7 +697,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="D1">
       <selection activeCell="P2" sqref="P2"/>
@@ -630,9 +780,59 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -641,28 +841,28 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
         <v>28</v>
@@ -671,10 +871,10 @@
         <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
         <v>32</v>
@@ -682,102 +882,248 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>123</v>
+      </c>
+      <c r="H5">
+        <v>1231</v>
+      </c>
+      <c r="I5">
+        <v>123</v>
+      </c>
+      <c r="J5">
+        <v>123</v>
+      </c>
+      <c r="K5">
+        <v>123</v>
+      </c>
+      <c r="L5">
+        <v>123</v>
+      </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <v>123</v>
+      </c>
+      <c r="O5">
+        <v>123</v>
+      </c>
+      <c r="P5">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>123</v>
-      </c>
-      <c r="H6">
-        <v>1231</v>
-      </c>
-      <c r="I6">
-        <v>123</v>
-      </c>
-      <c r="J6">
-        <v>123</v>
-      </c>
-      <c r="K6">
-        <v>123</v>
-      </c>
-      <c r="L6">
-        <v>123</v>
-      </c>
-      <c r="M6">
-        <v>23</v>
-      </c>
-      <c r="N6">
-        <v>123</v>
-      </c>
-      <c r="O6">
-        <v>123</v>
-      </c>
-      <c r="P6">
-        <v>123</v>
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/updated-excels/substation.xlsx
+++ b/public/assets/updated-excels/substation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>Visual Check</t>
   </si>
@@ -156,6 +156,156 @@
   </si>
   <si>
     <t>16:23:00</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>PUTRAJAYA &amp; CYBERJAYA</t>
+  </si>
+  <si>
+    <t>1986-10-15</t>
+  </si>
+  <si>
+    <t>15:13:00</t>
+  </si>
+  <si>
+    <t>Voluptate reiciendis</t>
+  </si>
+  <si>
+    <t>Sit deserunt consequ</t>
+  </si>
+  <si>
+    <t>Fleur Bender</t>
+  </si>
+  <si>
+    <t>Blanditiis quis magn</t>
+  </si>
+  <si>
+    <t>Neque ducimus qui a</t>
+  </si>
+  <si>
+    <t>In eveniet distinct</t>
+  </si>
+  <si>
+    <t>Molestiae et enim ne</t>
+  </si>
+  <si>
+    <t>Aliquip nemo quidem</t>
+  </si>
+  <si>
+    <t>Tempora nostrum et r</t>
+  </si>
+  <si>
+    <t>Aute Nam et placeat</t>
+  </si>
+  <si>
+    <t>1984-04-18</t>
+  </si>
+  <si>
+    <t>14:01:00</t>
+  </si>
+  <si>
+    <t>Eiusmod nesciunt co</t>
+  </si>
+  <si>
+    <t>Ut sequi ut aspernat</t>
+  </si>
+  <si>
+    <t>Dakota Calderon</t>
+  </si>
+  <si>
+    <t>Dolor officiis volup</t>
+  </si>
+  <si>
+    <t>Sit nisi sed et dolo</t>
+  </si>
+  <si>
+    <t>Voluptas dolorum quo</t>
+  </si>
+  <si>
+    <t>Dolor sed hic aliqua</t>
+  </si>
+  <si>
+    <t>Velit vitae error ut</t>
+  </si>
+  <si>
+    <t>2004-11-29</t>
+  </si>
+  <si>
+    <t>03:05:00</t>
+  </si>
+  <si>
+    <t>Ipsam ex voluptas do</t>
+  </si>
+  <si>
+    <t>Doloremque quae comm</t>
+  </si>
+  <si>
+    <t>Allen Smith</t>
+  </si>
+  <si>
+    <t>Et consectetur sit u</t>
+  </si>
+  <si>
+    <t>Alias laboriosam om</t>
+  </si>
+  <si>
+    <t>Ex numquam est ducim</t>
+  </si>
+  <si>
+    <t>Fugiat ex ad labori</t>
+  </si>
+  <si>
+    <t>Non accusamus exerci</t>
+  </si>
+  <si>
+    <t>In optio enim minus</t>
+  </si>
+  <si>
+    <t>Debitis recusandae</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>PELABUHAN KLANG</t>
+  </si>
+  <si>
+    <t>1980-07-02</t>
+  </si>
+  <si>
+    <t>06:12:00</t>
+  </si>
+  <si>
+    <t>Qui aut sequi est s</t>
+  </si>
+  <si>
+    <t>Ea ullamco quod est</t>
+  </si>
+  <si>
+    <t>Kalia Monroe</t>
+  </si>
+  <si>
+    <t>Quis optio laboris</t>
+  </si>
+  <si>
+    <t>Fugit et dolor prov</t>
+  </si>
+  <si>
+    <t>Eiusmod sit totam il</t>
+  </si>
+  <si>
+    <t>Ipsam rem eos molest</t>
+  </si>
+  <si>
+    <t>Aliquip sint volupta</t>
+  </si>
+  <si>
+    <t>Odio enim Nam suscip</t>
+  </si>
+  <si>
+    <t>Omnis dolor recusand</t>
   </si>
 </sst>
 </file>
@@ -547,7 +697,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="D1">
       <selection activeCell="P2" sqref="P2"/>
@@ -780,6 +930,202 @@
         <v>123</v>
       </c>
     </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="L1:O1"/>
